--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Agrp</t>
+  </si>
+  <si>
+    <t>Mc5r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Agrp</t>
-  </si>
-  <si>
-    <t>Mc5r</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9566616666666666</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H2">
-        <v>2.869985</v>
+        <v>0.857494</v>
       </c>
       <c r="I2">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9190126666666667</v>
+        <v>1.677453</v>
       </c>
       <c r="N2">
-        <v>2.757038</v>
+        <v>5.032359</v>
       </c>
       <c r="O2">
-        <v>0.1549790623755428</v>
+        <v>0.2543757648546719</v>
       </c>
       <c r="P2">
-        <v>0.1549790623755428</v>
+        <v>0.2543757648546719</v>
       </c>
       <c r="Q2">
-        <v>0.8791841893811111</v>
+        <v>0.4794686275939999</v>
       </c>
       <c r="R2">
-        <v>7.91265770443</v>
+        <v>4.315217648346</v>
       </c>
       <c r="S2">
-        <v>0.09483157423781305</v>
+        <v>0.2543757648546719</v>
       </c>
       <c r="T2">
-        <v>0.09483157423781303</v>
+        <v>0.2543757648546719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9566616666666666</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H3">
-        <v>2.869985</v>
+        <v>0.857494</v>
       </c>
       <c r="I3">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.101463</v>
       </c>
       <c r="O3">
-        <v>0.6240372191956658</v>
+        <v>0.5611569328879042</v>
       </c>
       <c r="P3">
-        <v>0.6240372191956658</v>
+        <v>0.5611569328879042</v>
       </c>
       <c r="Q3">
-        <v>3.540114698672777</v>
+        <v>1.057715323746889</v>
       </c>
       <c r="R3">
-        <v>31.86103228805499</v>
+        <v>9.519437913721999</v>
       </c>
       <c r="S3">
-        <v>0.3818479152745934</v>
+        <v>0.5611569328879042</v>
       </c>
       <c r="T3">
-        <v>0.3818479152745934</v>
+        <v>0.5611569328879042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9566616666666666</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H4">
-        <v>2.869985</v>
+        <v>0.857494</v>
       </c>
       <c r="I4">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.208722</v>
+        <v>1.148238333333333</v>
       </c>
       <c r="N4">
-        <v>3.626166</v>
+        <v>3.444715</v>
       </c>
       <c r="O4">
-        <v>0.2038346249482497</v>
+        <v>0.174123510034034</v>
       </c>
       <c r="P4">
-        <v>0.2038346249482497</v>
+        <v>0.174123510034034</v>
       </c>
       <c r="Q4">
-        <v>1.156338003056667</v>
+        <v>0.3282024938011111</v>
       </c>
       <c r="R4">
-        <v>10.40704202751</v>
+        <v>2.95382244421</v>
       </c>
       <c r="S4">
-        <v>0.1247262570293313</v>
+        <v>0.174123510034034</v>
       </c>
       <c r="T4">
-        <v>0.1247262570293313</v>
+        <v>0.174123510034034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.9566616666666666</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H5">
-        <v>2.869985</v>
+        <v>0.857494</v>
       </c>
       <c r="I5">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,276 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1016926666666667</v>
+        <v>0.06821100000000001</v>
       </c>
       <c r="N5">
-        <v>0.305078</v>
+        <v>0.204633</v>
       </c>
       <c r="O5">
-        <v>0.01714909348054174</v>
+        <v>0.01034379222338988</v>
       </c>
       <c r="P5">
-        <v>0.01714909348054174</v>
+        <v>0.01034379222338988</v>
       </c>
       <c r="Q5">
-        <v>0.09728547598111111</v>
+        <v>0.019496841078</v>
       </c>
       <c r="R5">
-        <v>0.87556928383</v>
+        <v>0.175471569702</v>
       </c>
       <c r="S5">
-        <v>0.01049351768286238</v>
+        <v>0.01034379222338988</v>
       </c>
       <c r="T5">
-        <v>0.01049351768286238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.6067683333333334</v>
-      </c>
-      <c r="H6">
-        <v>1.820305</v>
-      </c>
-      <c r="I6">
-        <v>0.3881007357753999</v>
-      </c>
-      <c r="J6">
-        <v>0.3881007357753998</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.9190126666666667</v>
-      </c>
-      <c r="N6">
-        <v>2.757038</v>
-      </c>
-      <c r="O6">
-        <v>0.1549790623755428</v>
-      </c>
-      <c r="P6">
-        <v>0.1549790623755428</v>
-      </c>
-      <c r="Q6">
-        <v>0.5576277840655556</v>
-      </c>
-      <c r="R6">
-        <v>5.01865005659</v>
-      </c>
-      <c r="S6">
-        <v>0.06014748813772975</v>
-      </c>
-      <c r="T6">
-        <v>0.06014748813772973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.6067683333333334</v>
-      </c>
-      <c r="H7">
-        <v>1.820305</v>
-      </c>
-      <c r="I7">
-        <v>0.3881007357753999</v>
-      </c>
-      <c r="J7">
-        <v>0.3881007357753998</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.700487666666666</v>
-      </c>
-      <c r="N7">
-        <v>11.101463</v>
-      </c>
-      <c r="O7">
-        <v>0.6240372191956658</v>
-      </c>
-      <c r="P7">
-        <v>0.6240372191956658</v>
-      </c>
-      <c r="Q7">
-        <v>2.245338734023889</v>
-      </c>
-      <c r="R7">
-        <v>20.208048606215</v>
-      </c>
-      <c r="S7">
-        <v>0.2421893039210724</v>
-      </c>
-      <c r="T7">
-        <v>0.2421893039210724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.6067683333333334</v>
-      </c>
-      <c r="H8">
-        <v>1.820305</v>
-      </c>
-      <c r="I8">
-        <v>0.3881007357753999</v>
-      </c>
-      <c r="J8">
-        <v>0.3881007357753998</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.208722</v>
-      </c>
-      <c r="N8">
-        <v>3.626166</v>
-      </c>
-      <c r="O8">
-        <v>0.2038346249482497</v>
-      </c>
-      <c r="P8">
-        <v>0.2038346249482497</v>
-      </c>
-      <c r="Q8">
-        <v>0.7334142334033332</v>
-      </c>
-      <c r="R8">
-        <v>6.60072810063</v>
-      </c>
-      <c r="S8">
-        <v>0.07910836791891837</v>
-      </c>
-      <c r="T8">
-        <v>0.07910836791891837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.6067683333333334</v>
-      </c>
-      <c r="H9">
-        <v>1.820305</v>
-      </c>
-      <c r="I9">
-        <v>0.3881007357753999</v>
-      </c>
-      <c r="J9">
-        <v>0.3881007357753998</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1016926666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.305078</v>
-      </c>
-      <c r="O9">
-        <v>0.01714909348054174</v>
-      </c>
-      <c r="P9">
-        <v>0.01714909348054174</v>
-      </c>
-      <c r="Q9">
-        <v>0.06170388986555556</v>
-      </c>
-      <c r="R9">
-        <v>0.5553350087900001</v>
-      </c>
-      <c r="S9">
-        <v>0.006655575797679364</v>
-      </c>
-      <c r="T9">
-        <v>0.006655575797679361</v>
+        <v>0.01034379222338988</v>
       </c>
     </row>
   </sheetData>
